--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H2">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I2">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J2">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.13036839234934</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N2">
-        <v>5.13036839234934</v>
+        <v>19.830535</v>
       </c>
       <c r="O2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q2">
-        <v>836.0870873774494</v>
+        <v>1109.903251391853</v>
       </c>
       <c r="R2">
-        <v>836.0870873774494</v>
+        <v>9989.129262526681</v>
       </c>
       <c r="S2">
-        <v>0.2709022412455814</v>
+        <v>0.2866976197632157</v>
       </c>
       <c r="T2">
-        <v>0.2709022412455814</v>
+        <v>0.2866976197632158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H3">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I3">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J3">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.75397691008961</v>
+        <v>2.754304</v>
       </c>
       <c r="N3">
-        <v>2.75397691008961</v>
+        <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q3">
-        <v>448.8107592615119</v>
+        <v>462.470270961664</v>
       </c>
       <c r="R3">
-        <v>448.8107592615119</v>
+        <v>4162.232438654976</v>
       </c>
       <c r="S3">
-        <v>0.1454200673765291</v>
+        <v>0.1194600752179864</v>
       </c>
       <c r="T3">
-        <v>0.1454200673765291</v>
+        <v>0.1194600752179865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H4">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I4">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J4">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.22314243815605</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N4">
-        <v>0.22314243815605</v>
+        <v>0.687851</v>
       </c>
       <c r="O4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q4">
-        <v>36.36512954243436</v>
+        <v>38.49861142793867</v>
       </c>
       <c r="R4">
-        <v>36.36512954243436</v>
+        <v>346.487502851448</v>
       </c>
       <c r="S4">
-        <v>0.01178273800057384</v>
+        <v>0.009944524666215393</v>
       </c>
       <c r="T4">
-        <v>0.01178273800057384</v>
+        <v>0.009944524666215397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H5">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I5">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J5">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.220869978492051</v>
+        <v>0.214866</v>
       </c>
       <c r="N5">
-        <v>0.220869978492051</v>
+        <v>0.644598</v>
       </c>
       <c r="O5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q5">
-        <v>35.99479079941369</v>
+        <v>36.077766739056</v>
       </c>
       <c r="R5">
-        <v>35.99479079941369</v>
+        <v>324.699900651504</v>
       </c>
       <c r="S5">
-        <v>0.01166274380736239</v>
+        <v>0.009319199522561005</v>
       </c>
       <c r="T5">
-        <v>0.01166274380736239</v>
+        <v>0.009319199522561009</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>203.106970240312</v>
+        <v>167.908216</v>
       </c>
       <c r="H6">
-        <v>203.106970240312</v>
+        <v>503.724648</v>
       </c>
       <c r="I6">
-        <v>0.5480816732646215</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J6">
-        <v>0.5480816732646215</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.13036839234934</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N6">
-        <v>5.13036839234934</v>
+        <v>0.797045</v>
       </c>
       <c r="O6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q6">
-        <v>1042.013580386735</v>
+        <v>44.61013467390666</v>
       </c>
       <c r="R6">
-        <v>1042.013580386735</v>
+        <v>401.49121206516</v>
       </c>
       <c r="S6">
-        <v>0.337624894101089</v>
+        <v>0.01152318403634457</v>
       </c>
       <c r="T6">
-        <v>0.337624894101089</v>
+        <v>0.01152318403634457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H7">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I7">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J7">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.75397691008961</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N7">
-        <v>2.75397691008961</v>
+        <v>19.830535</v>
       </c>
       <c r="O7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q7">
-        <v>559.3519063200769</v>
+        <v>1393.327001856825</v>
       </c>
       <c r="R7">
-        <v>559.3519063200769</v>
+        <v>12539.94301671142</v>
       </c>
       <c r="S7">
-        <v>0.1812367244450573</v>
+        <v>0.3599084284898071</v>
       </c>
       <c r="T7">
-        <v>0.1812367244450573</v>
+        <v>0.3599084284898073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H8">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I8">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J8">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.22314243815605</v>
+        <v>2.754304</v>
       </c>
       <c r="N8">
-        <v>0.22314243815605</v>
+        <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q8">
-        <v>45.32178454591151</v>
+        <v>580.5662027558399</v>
       </c>
       <c r="R8">
-        <v>45.32178454591151</v>
+        <v>5225.09582480256</v>
       </c>
       <c r="S8">
-        <v>0.01468480161468397</v>
+        <v>0.1499652769161079</v>
       </c>
       <c r="T8">
-        <v>0.01468480161468397</v>
+        <v>0.1499652769161079</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>203.106970240312</v>
+        <v>210.785085</v>
       </c>
       <c r="H9">
-        <v>203.106970240312</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I9">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J9">
-        <v>0.5480816732646215</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.220869978492051</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N9">
-        <v>0.220869978492051</v>
+        <v>0.687851</v>
       </c>
       <c r="O9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q9">
-        <v>44.86023214856336</v>
+        <v>48.329577167445</v>
       </c>
       <c r="R9">
-        <v>44.86023214856336</v>
+        <v>434.966194507005</v>
       </c>
       <c r="S9">
-        <v>0.0145352531037913</v>
+        <v>0.01248394823665334</v>
       </c>
       <c r="T9">
-        <v>0.0145352531037913</v>
+        <v>0.01248394823665334</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.50272055453184</v>
+        <v>210.785085</v>
       </c>
       <c r="H10">
-        <v>4.50272055453184</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I10">
-        <v>0.0121505363053316</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J10">
-        <v>0.0121505363053316</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.13036839234934</v>
+        <v>0.214866</v>
       </c>
       <c r="N10">
-        <v>5.13036839234934</v>
+        <v>0.644598</v>
       </c>
       <c r="O10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q10">
-        <v>23.10061521255185</v>
+        <v>45.29054807361</v>
       </c>
       <c r="R10">
-        <v>23.10061521255185</v>
+        <v>407.61493266249</v>
       </c>
       <c r="S10">
-        <v>0.00748487631218123</v>
+        <v>0.011698940708744</v>
       </c>
       <c r="T10">
-        <v>0.00748487631218123</v>
+        <v>0.011698940708744</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.50272055453184</v>
+        <v>210.785085</v>
       </c>
       <c r="H11">
-        <v>4.50272055453184</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I11">
-        <v>0.0121505363053316</v>
+        <v>0.5485223267879642</v>
       </c>
       <c r="J11">
-        <v>0.0121505363053316</v>
+        <v>0.5485223267879643</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75397691008961</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N11">
-        <v>2.75397691008961</v>
+        <v>0.797045</v>
       </c>
       <c r="O11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q11">
-        <v>12.40038843976657</v>
+        <v>56.00173269127499</v>
       </c>
       <c r="R11">
-        <v>12.40038843976657</v>
+        <v>504.0155942214749</v>
       </c>
       <c r="S11">
-        <v>0.004017874538866093</v>
+        <v>0.01446573243665177</v>
       </c>
       <c r="T11">
-        <v>0.004017874538866093</v>
+        <v>0.01446573243665178</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>4.50272055453184</v>
+        <v>0.047383</v>
       </c>
       <c r="H12">
-        <v>4.50272055453184</v>
+        <v>0.142149</v>
       </c>
       <c r="I12">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868891</v>
       </c>
       <c r="J12">
-        <v>0.0121505363053316</v>
+        <v>0.0001233039491868892</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.22314243815605</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N12">
-        <v>0.22314243815605</v>
+        <v>19.830535</v>
       </c>
       <c r="O12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q12">
-        <v>1.004748042873596</v>
+        <v>0.3132100799683334</v>
       </c>
       <c r="R12">
-        <v>1.004748042873596</v>
+        <v>2.818890719715</v>
       </c>
       <c r="S12">
-        <v>0.0003255504131218451</v>
+        <v>8.090487553771906E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003255504131218451</v>
+        <v>8.090487553771909E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.047383</v>
+      </c>
+      <c r="H13">
+        <v>0.142149</v>
+      </c>
+      <c r="I13">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J13">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.754304</v>
+      </c>
+      <c r="N13">
+        <v>8.262912</v>
+      </c>
+      <c r="O13">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P13">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q13">
+        <v>0.130507186432</v>
+      </c>
+      <c r="R13">
+        <v>1.174564677888</v>
+      </c>
+      <c r="S13">
+        <v>3.371113623203434E-05</v>
+      </c>
+      <c r="T13">
+        <v>3.371113623203436E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.047383</v>
+      </c>
+      <c r="H14">
+        <v>0.142149</v>
+      </c>
+      <c r="I14">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J14">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.687851</v>
+      </c>
+      <c r="O14">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P14">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q14">
+        <v>0.01086414797766667</v>
+      </c>
+      <c r="R14">
+        <v>0.097777331799</v>
+      </c>
+      <c r="S14">
+        <v>2.806303488206223E-06</v>
+      </c>
+      <c r="T14">
+        <v>2.806303488206224E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.047383</v>
+      </c>
+      <c r="H15">
+        <v>0.142149</v>
+      </c>
+      <c r="I15">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J15">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.214866</v>
+      </c>
+      <c r="N15">
+        <v>0.644598</v>
+      </c>
+      <c r="O15">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P15">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q15">
+        <v>0.010180995678</v>
+      </c>
+      <c r="R15">
+        <v>0.091628961102</v>
+      </c>
+      <c r="S15">
+        <v>2.629839334231912E-06</v>
+      </c>
+      <c r="T15">
+        <v>2.629839334231913E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.047383</v>
+      </c>
+      <c r="H16">
+        <v>0.142149</v>
+      </c>
+      <c r="I16">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J16">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.797045</v>
+      </c>
+      <c r="O16">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P16">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q16">
+        <v>0.01258879441166667</v>
+      </c>
+      <c r="R16">
+        <v>0.113299149705</v>
+      </c>
+      <c r="S16">
+        <v>3.251794594697585E-06</v>
+      </c>
+      <c r="T16">
+        <v>3.251794594697587E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.384626</v>
+      </c>
+      <c r="I17">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J17">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N17">
+        <v>19.830535</v>
+      </c>
+      <c r="O17">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P17">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q17">
+        <v>0.8474821505455556</v>
+      </c>
+      <c r="R17">
+        <v>7.627339354910001</v>
+      </c>
+      <c r="S17">
+        <v>0.0002189119772813789</v>
+      </c>
+      <c r="T17">
+        <v>0.000218911977281379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.384626</v>
+      </c>
+      <c r="I18">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J18">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.754304</v>
+      </c>
+      <c r="N18">
+        <v>8.262912</v>
+      </c>
+      <c r="O18">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P18">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q18">
+        <v>0.3531256434346666</v>
+      </c>
+      <c r="R18">
+        <v>3.178130790912</v>
+      </c>
+      <c r="S18">
+        <v>9.121541118391576E-05</v>
+      </c>
+      <c r="T18">
+        <v>9.121541118391583E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.50272055453184</v>
-      </c>
-      <c r="H13">
-        <v>4.50272055453184</v>
-      </c>
-      <c r="I13">
-        <v>0.0121505363053316</v>
-      </c>
-      <c r="J13">
-        <v>0.0121505363053316</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="N13">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="O13">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="P13">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="Q13">
-        <v>0.9945157920351635</v>
-      </c>
-      <c r="R13">
-        <v>0.9945157920351635</v>
-      </c>
-      <c r="S13">
-        <v>0.0003222350411624322</v>
-      </c>
-      <c r="T13">
-        <v>0.0003222350411624322</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.384626</v>
+      </c>
+      <c r="I19">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J19">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.687851</v>
+      </c>
+      <c r="O19">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P19">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q19">
+        <v>0.02939615319177778</v>
+      </c>
+      <c r="R19">
+        <v>0.264565378726</v>
+      </c>
+      <c r="S19">
+        <v>7.593280891563125E-06</v>
+      </c>
+      <c r="T19">
+        <v>7.593280891563129E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.384626</v>
+      </c>
+      <c r="I20">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J20">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.214866</v>
+      </c>
+      <c r="N20">
+        <v>0.644598</v>
+      </c>
+      <c r="O20">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P20">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q20">
+        <v>0.027547683372</v>
+      </c>
+      <c r="R20">
+        <v>0.247929150348</v>
+      </c>
+      <c r="S20">
+        <v>7.115805132419386E-06</v>
+      </c>
+      <c r="T20">
+        <v>7.11580513241939E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.384626</v>
+      </c>
+      <c r="I21">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J21">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.797045</v>
+      </c>
+      <c r="O21">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P21">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q21">
+        <v>0.03406269224111111</v>
+      </c>
+      <c r="R21">
+        <v>0.30656423017</v>
+      </c>
+      <c r="S21">
+        <v>8.798688332525402E-06</v>
+      </c>
+      <c r="T21">
+        <v>8.798688332525408E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H22">
+        <v>16.227444</v>
+      </c>
+      <c r="I22">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J22">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N22">
+        <v>19.830535</v>
+      </c>
+      <c r="O22">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P22">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q22">
+        <v>35.75543291139334</v>
+      </c>
+      <c r="R22">
+        <v>321.79889620254</v>
+      </c>
+      <c r="S22">
+        <v>0.009235937903997259</v>
+      </c>
+      <c r="T22">
+        <v>0.009235937903997262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H23">
+        <v>16.227444</v>
+      </c>
+      <c r="I23">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J23">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.754304</v>
+      </c>
+      <c r="N23">
+        <v>8.262912</v>
+      </c>
+      <c r="O23">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P23">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q23">
+        <v>14.898437972992</v>
+      </c>
+      <c r="R23">
+        <v>134.085941756928</v>
+      </c>
+      <c r="S23">
+        <v>0.003848395524285844</v>
+      </c>
+      <c r="T23">
+        <v>0.003848395524285847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H24">
+        <v>16.227444</v>
+      </c>
+      <c r="I24">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J24">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.687851</v>
+      </c>
+      <c r="O24">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P24">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q24">
+        <v>1.240229286982667</v>
+      </c>
+      <c r="R24">
+        <v>11.162063582844</v>
+      </c>
+      <c r="S24">
+        <v>0.0003203619631645045</v>
+      </c>
+      <c r="T24">
+        <v>0.0003203619631645047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H25">
+        <v>16.227444</v>
+      </c>
+      <c r="I25">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J25">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.214866</v>
+      </c>
+      <c r="N25">
+        <v>0.644598</v>
+      </c>
+      <c r="O25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q25">
+        <v>1.162241994168</v>
+      </c>
+      <c r="R25">
+        <v>10.460177947512</v>
+      </c>
+      <c r="S25">
+        <v>0.0003002171701893481</v>
+      </c>
+      <c r="T25">
+        <v>0.0003002171701893482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H26">
+        <v>16.227444</v>
+      </c>
+      <c r="I26">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J26">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.797045</v>
+      </c>
+      <c r="O26">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P26">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q26">
+        <v>1.437111455886667</v>
+      </c>
+      <c r="R26">
+        <v>12.93400310298</v>
+      </c>
+      <c r="S26">
+        <v>0.0003712183320667593</v>
+      </c>
+      <c r="T26">
+        <v>0.0003712183320667595</v>
       </c>
     </row>
   </sheetData>
